--- a/src/main/resources/model.xlsx
+++ b/src/main/resources/model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24690" windowHeight="10275"/>
+    <workbookView windowWidth="25725" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>列名</t>
   </si>
@@ -40,25 +40,82 @@
     <t>表描述</t>
   </si>
   <si>
+    <t>表名称</t>
+  </si>
+  <si>
     <t>C1</t>
   </si>
   <si>
-    <t>DECIAML</t>
-  </si>
-  <si>
-    <t>16,2</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
-    <t>xxx</t>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>(16,2)</t>
+  </si>
+  <si>
+    <t>C1备注</t>
+  </si>
+  <si>
+    <t>表备注</t>
+  </si>
+  <si>
+    <t>table_test</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
     <t>INT</t>
+  </si>
+  <si>
+    <t>C2备注</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>C3备注</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>C4备注</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>C5备注</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>(10,7)</t>
+  </si>
+  <si>
+    <t>C6备注</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>C7备注</t>
   </si>
 </sst>
 </file>
@@ -67,9 +124,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -94,6 +151,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -102,6 +187,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -110,21 +202,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,13 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -153,67 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -230,6 +279,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -237,9 +294,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,187 +316,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,15 +571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -541,8 +588,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -559,21 +608,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,19 +630,41 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,152 +673,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,15 +832,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1138,15 +1209,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,16 +1242,19 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="14.25" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="b">
         <v>0</v>
@@ -1188,20 +1262,23 @@
       <c r="E2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="14.25" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
@@ -1212,15 +1289,132 @@
       <c r="E3" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8">
+        <v>255</v>
+      </c>
+      <c r="D4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:9">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:9">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:9">
+      <c r="A7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:9">
+      <c r="A8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="12">
         <v>11</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="D8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H2:H3"/>
+  <mergeCells count="2">
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
